--- a/Lines.xlsx
+++ b/Lines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,18 +503,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Figeac</t>
+          <t>Lascombes</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C2" t="n">
         <v>75</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Château Figeac</t>
+          <t>Château Lascombes</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -522,13 +522,13 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>195.00</t>
+          <t>52.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>210.00</t>
+          <t>56.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -538,110 +538,124 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>35556</v>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>51506</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Figeac</t>
+          <t>Alter Ego de Palmer (2nd Vin)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="C3" t="n">
         <v>75</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Château Figeac</t>
+          <t>Château Palmer</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>190.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>205.00</t>
+          <t>54.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>35556</v>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>64305</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Palmer Historical</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Il Pino di Biserno</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2023</v>
+      </c>
       <c r="C4" t="n">
         <v>75</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tenuta di Biserno</t>
+        </is>
+      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>fallback_1.08</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>63068</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>La Joie</t>
+          <t>Concerto</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="C5" t="n">
         <v>75</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vérité</t>
+          <t>Marchesi Mazzei Castello di Fonterutoli</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -649,44 +663,46 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>225.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>245.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>15447</v>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>65412</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ducru Beaucaillou (Ex-Château)</t>
+          <t>Seña</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="C6" t="n">
         <v>75</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Château Ducru Beaucaillou</t>
+          <t>Chadwick Eduardo</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -694,89 +710,93 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>260.00</t>
+          <t>69.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>280.00</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>item_no_match</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>65332</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>64185</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ducru Beaucaillou (Ex-Château)</t>
+          <t>Saffredi</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="C7" t="n">
         <v>75</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Château Ducru Beaucaillou</t>
+          <t>Fattoria le Pupille</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>255.00</t>
+          <t>66.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>270.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>item_no_match</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>65332</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>65642</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Clos l'Église (Ex-Château)</t>
+          <t>Pichon Longueville Comtesse Lalande</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2009</v>
+        <v>2024</v>
       </c>
       <c r="C8" t="n">
         <v>75</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Clos l'Eglise</t>
+          <t>Château Pichon-Longueville Comtesse de Lalande</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -784,89 +804,93 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>105.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>113.00</t>
+          <t>105.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>65423</v>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>64375</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Clos l'Église (Ex-Château)</t>
+          <t>Clos du Marquis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2009</v>
+        <v>2024</v>
       </c>
       <c r="C9" t="n">
         <v>75</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Clos l'Eglise</t>
+          <t>Château Léoville Las Cases</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>107.00</t>
+          <t>36.70</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>65423</v>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>64299</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hommage à Jacques Perrin</t>
+          <t>Pavie</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C10" t="n">
         <v>75</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Château de Beaucastel</t>
+          <t>Château Pavie</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -874,89 +898,91 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>185.00</t>
+          <t>168.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>200.00</t>
+          <t>180.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>item_no_match</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>59132</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>51417</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tumba del Rey Moro</t>
+          <t>Pavie</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C11" t="n">
         <v>75</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bodega Comando G</t>
+          <t>Château Pavie</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>300.00</t>
+          <t>165.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>324.00</t>
+          <t>178.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>65645</v>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>51417</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Margaux</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2018</v>
-      </c>
+          <t>Champagne Brut Rosé (Edition 29)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>75</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Château Margaux</t>
+          <t>Krug</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -964,44 +990,46 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>475.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>515.00</t>
+          <t>325.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>48963</v>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>65274</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Latour</t>
+          <t>Figeac</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="C13" t="n">
         <v>75</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Château Latour</t>
+          <t>Château Figeac</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1009,78 +1037,82 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>975.00</t>
+          <t>145.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1055.00</t>
+          <t>155.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>10727</v>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>48976</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Latour</t>
+          <t>Figeac</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C14" t="n">
         <v>75</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Château Latour</t>
+          <t>Château Figeac</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>950.00</t>
+          <t>240.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1025.00</t>
+          <t>260.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>10727</v>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cabernet Sauvignon</t>
+          <t>Pichon Longueville Baron</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1091,7 +1123,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Harlan Estate</t>
+          <t>Château Pichon-Longueville Baron</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1099,44 +1131,46 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1500.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1620.00</t>
+          <t>106.00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>item_no_match</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>62804</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>55598</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Haut Brion</t>
+          <t>Cos d'Estournel</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2000</v>
+        <v>2021</v>
       </c>
       <c r="C16" t="n">
         <v>75</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Château Haut Brion</t>
+          <t>Château Cos d'Estournel</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1144,89 +1178,93 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>850.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>920.00</t>
+          <t>98.00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>item_no_match</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>10144</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>55625</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lafite Rothschild</t>
+          <t>Cos d'Estournel</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005</v>
+        <v>2021</v>
       </c>
       <c r="C17" t="n">
         <v>75</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Château Lafite Rothschild</t>
+          <t>Château Cos d'Estournel</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>720.00</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>780.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>item_no_match</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>7779</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>55625</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lafleur</t>
+          <t>Ornellaia</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C18" t="n">
         <v>75</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Château Lafleur</t>
+          <t>Tenuta dell'Ornellaia</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1234,44 +1272,46 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1150.00</t>
+          <t>165.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1250.00</t>
+          <t>220.00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>item_no_match</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>57067</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>60030</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Barolo Monfortino Riserva</t>
+          <t>Malescot Saint-Exupéry</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="C19" t="n">
         <v>75</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Giacomo Conterno</t>
+          <t>Château Malescot Saint Exupéry</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1279,27 +1319,3395 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1480.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1600.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>item_no_match</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>15971</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>57312</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Clio</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="n">
+        <v>75</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Bodegas El Nido</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>43.00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>17</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>62736</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mangot</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C21" t="n">
+        <v>900</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Château Mangot</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>540.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>585.00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>18</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>57604</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sauvignon Blanc</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C22" t="n">
+        <v>75</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cloudy Bay</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>19</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>56726</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Phélan Ségur</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C23" t="n">
+        <v>75</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Château Phélan Ségur</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>20</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>49069</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Péby Faugeres</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C24" t="n">
+        <v>75</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Château Péby Faugères</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>58.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>62.00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>21</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>55831</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Pavie Macquin</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C25" t="n">
+        <v>75</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Château Pavie Macquin</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>22</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>55741</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Champagne Brut Blanc de Blancs</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>75</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Maison Ruinart</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>23</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>8110</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Redigaffi</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C27" t="n">
+        <v>75</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Tua Rita</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>24</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>59603</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>La Fleur de Bouard</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C28" t="n">
+        <v>75</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Château La Fleur de Boüard</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>59.00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>25</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>40068</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Pape Clément Blanc</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C29" t="n">
+        <v>75</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Château Pape Clément</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>105.00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>26</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>63684</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rieussec</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C30" t="n">
+        <v>75</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Château Rieussec</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>27</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>55376</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Paleo Rosso</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C31" t="n">
+        <v>75</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Le Macchiole</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>28</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>63717</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Champagne Extra Brut Grand Cru Le Mesnil</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="n">
+        <v>75</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Frederic Savart</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>165.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>180.00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>29</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>65596</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Champagne Brut Dom Pérignon</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C33" t="n">
+        <v>75</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Dom Pérignon</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>149.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>30</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>61750</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Champagne Brut Dom Pérignon</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C34" t="n">
+        <v>75</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Dom Pérignon</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>36</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>146.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>158.00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>30</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>61750</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Champagne Brut Réserve</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>75</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Taittinger Champagne</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>31</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>62427</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Brut Satèn</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C36" t="n">
+        <v>75</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Bellavista</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>32</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>62363</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Champagne Brut Grande Cuvée (Edition 172)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>75</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Krug</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>175.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>190.00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>33</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>62042</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Lodovico</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C38" t="n">
+        <v>75</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tenuta di Biserno</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>295.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>320.00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>34</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>62945</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Champagne Clos des Goisses L.V.</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>75</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Philipponnat</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>335.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>365.00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>35</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>65667</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Clos Apalta</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Lapostolle Winery</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2000.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2160.00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>36</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>62150</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Champagne Brut Cuvée Rosé</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>75</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Laurent Perrier</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>64.00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>37</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>21530</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Champagne Brut Cuvée Rosé</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>75</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Laurent Perrier</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>36</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>58.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>62.00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>37</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>21530</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Le Petit Cheval Blanc</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C43" t="n">
+        <v>75</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Château Cheval Blanc</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>38</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>65582</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ygrec de Ch. d'Yquem</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C44" t="n">
+        <v>75</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Château d'Yquem</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>135.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>39</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>65467</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>La Mission Haut-Brion Blanc</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C45" t="n">
+        <v>75</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Château La Mission Haut Brion</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>440.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>475.00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>40</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>53945</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Clos Floridène Blanc</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Clos Floridène</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>41</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>65529</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Cheval des Andes</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C47" t="n">
+        <v>75</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Cheval des Andes</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>62.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>42</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>63172</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Lascombes</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C48" t="n">
+        <v>75</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Château Lascombes</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>43</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>57259</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Solaia</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C49" t="n">
+        <v>75</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Antinori - Tenuta Tignanello</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>305.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>320.00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>44</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>62397</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Opus One</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C50" t="n">
+        <v>75</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Opus One Winery</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>255.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>272.00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>45</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>65428</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Yjar</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="n">
+        <v>75</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Telmo Rodríguez</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>115.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>46</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>65509</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Almaviva</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C52" t="n">
+        <v>75</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Baron Philippe de Rothschild and Concha Y Toro</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>47</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>64179</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Almaviva</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C53" t="n">
+        <v>75</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Baron Philippe de Rothschild and Concha Y Toro</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>36</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>47</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>64179</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Grange</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C54" t="n">
+        <v>75</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Penfolds</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>475.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>515.00</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>48</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>63301</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Margaux</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C55" t="n">
+        <v>75</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Château Margaux</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>465.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>49</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>3516</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Torrione</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C56" t="n">
+        <v>75</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Fattoria Petrolo</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>50</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>62095</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Abadía Retuerta Selección Especial</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C57" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Abadía Retuerta</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>52</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>63380</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Marsau</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C58" t="n">
+        <v>75</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Château Marsau</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>53</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>57961</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Crognolo</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C59" t="n">
+        <v>75</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Tenuta Sette Ponti</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>36</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>54</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>62101</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Prosecco Brut Millesimato</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C60" t="n">
+        <v>75</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Villa Marcello</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>55</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>62710</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Le Difese</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C61" t="n">
+        <v>75</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Tenuta San Guido</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>56</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>62860</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Abadía Retuerta Selección Especial</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C62" t="n">
+        <v>75</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Abadía Retuerta</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>57</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>63379</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Abadía Retuerta Selección Especial</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C63" t="n">
+        <v>75</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Abadía Retuerta</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>36</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>57</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>63379</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Testamatta</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C64" t="n">
+        <v>75</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Bibi Graetz</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>58</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>54659</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Testamatta</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C65" t="n">
+        <v>75</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Bibi Graetz</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>47.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>59</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>56380</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PSI, Dominio de Pingus</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C66" t="n">
+        <v>75</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1080.00</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>60</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>fallback_1.08</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PSI</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C67" t="n">
+        <v>75</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Dominio de Pingus</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>61</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>62481</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PSI</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C68" t="n">
+        <v>75</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Dominio de Pingus</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>36</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>61</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>62481</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Lagrange</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C69" t="n">
+        <v>75</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Château Lagrange</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>62</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>65367</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Pape Clément Rouge</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C70" t="n">
+        <v>75</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Château Pape Clément</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>59.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>63</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>53908</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="n">
+        <v>75</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Château Canon</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>64</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>51493</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Le Clarence de Haut Brion (2nd Vin)</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C72" t="n">
+        <v>75</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Château Haut Brion</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>65</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>51448</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Flaccianello della Pieve</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C73" t="n">
+        <v>75</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Fontodi</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>66</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>61426</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Suduiraut</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C74" t="n">
+        <v>75</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Château Suduiraut</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>67</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>57075</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Suduiraut</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C75" t="n">
+        <v>75</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Château Suduiraut</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>36</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>53.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>58.00</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>67</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>57075</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ornellaia</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C76" t="n">
+        <v>75</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Tenuta dell'Ornellaia</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>180.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>195.00</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>68</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>55195</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Léoville Las Cases</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Château Léoville Las Cases</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>165.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>180.00</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>69</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>51475</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Messorio</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C78" t="n">
+        <v>75</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Le Macchiole</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>170.00</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>70</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>63714</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Palmer (Ex-Château)</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C79" t="n">
+        <v>75</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Château Palmer</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>279.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>71</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>65476</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sassicaia</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C80" t="n">
+        <v>75</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tenuta San Guido</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>275.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>297.00</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>72</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>fuzzy_filtered</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>33297</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C81" t="n">
+        <v>75</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Château Montrose</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>73</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>51503</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C82" t="n">
+        <v>75</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Château Montrose</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>36</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>135.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>145.00</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>73</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>51503</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Figeac</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C83" t="n">
+        <v>75</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Château Figeac</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>240.00</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>74</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2883</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Finca Piedra Infinita Gravascal</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C84" t="n">
+        <v>75</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Familia Zuccardi</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>210.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>230.00</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>75</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>65732</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Latour (Ex-Château)</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C85" t="n">
+        <v>75</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Château Latour</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>450.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>485.00</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>76</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>60065</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Barbaresco Asili Riserva</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C86" t="n">
+        <v>75</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Azienda Agricola Falletto di Bruno Giacosa</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>435.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>470.00</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>77</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>62785</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Barolo Monfortino Riserva</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C87" t="n">
+        <v>75</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Giacomo Conterno</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>790.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>855.00</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>78</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>49764</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Mouton Rothschild</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C88" t="n">
+        <v>75</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Château Mouton Rothschild</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>590.00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>640.00</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>79</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>4369</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Mouton Rothschild</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C89" t="n">
+        <v>75</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Château Mouton Rothschild</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>36</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>580.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>630.00</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>79</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4369</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Champagne le Mesnil</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C90" t="n">
+        <v>75</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Maison Salon</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>855.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>925.00</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>80</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>65236</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Yquem</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C91" t="n">
+        <v>150</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Château d'Yquem</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>790.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>855.00</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>81</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>36555</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Lines.xlsx
+++ b/Lines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lascombes</t>
+          <t>I Sodi di San Niccolò</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -514,7 +514,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Château Lascombes</t>
+          <t>Domini Castellare di Castellina</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -522,13 +522,13 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>52.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>56.00</t>
+          <t>46.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -538,97 +538,97 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>51506</t>
+          <t>65780</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alter Ego de Palmer (2nd Vin)</t>
+          <t>I Sodi di San Niccolò</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
         <v>75</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Château Palmer</t>
+          <t>Domini Castellare di Castellina</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>54.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>64305</t>
+          <t>65780</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Il Pino di Biserno</t>
+          <t>Aalto</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C4" t="n">
         <v>75</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tenuta di Biserno</t>
+          <t>Aalto Bodegas y Viñedos</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -637,25 +637,25 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>63068</t>
+          <t>57042</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Concerto</t>
+          <t>Barbera d'Asti Bricco dell'Uccellone</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C5" t="n">
         <v>75</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Marchesi Mazzei Castello di Fonterutoli</t>
+          <t>Braida</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -663,19 +663,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>49.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -684,45 +684,45 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>65412</t>
+          <t>62768</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Seña</t>
+          <t>Barbera d'Asti Bricco dell'Uccellone</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C6" t="n">
         <v>75</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chadwick Eduardo</t>
+          <t>Braida</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>74.00</t>
+          <t>46.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -731,25 +731,25 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>64185</t>
+          <t>62768</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saffredi</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C7" t="n">
         <v>75</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fattoria le Pupille</t>
+          <t>Château Montrose</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -757,19 +757,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>66.00</t>
+          <t>85.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -778,72 +778,72 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>65642</t>
+          <t>55552</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pichon Longueville Comtesse Lalande</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C8" t="n">
         <v>75</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Château Pichon-Longueville Comtesse de Lalande</t>
+          <t>Château Montrose</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>105.00</t>
+          <t>85.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>64375</t>
+          <t>55552</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Clos du Marquis</t>
+          <t>La Mission Haut-Brion</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C9" t="n">
         <v>75</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Château Léoville Las Cases</t>
+          <t>Château La Mission Haut Brion</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -851,66 +851,66 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>148.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>36.70</t>
+          <t>160.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>64299</t>
+          <t>55704</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pavie</t>
+          <t>La Mission Haut-Brion</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C10" t="n">
         <v>75</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Château Pavie</t>
+          <t>Château La Mission Haut Brion</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>168.00</t>
+          <t>145.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>180.00</t>
+          <t>155.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -919,45 +919,45 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>51417</t>
+          <t>55704</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pavie</t>
+          <t>Dominus</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C11" t="n">
         <v>75</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Château Pavie</t>
+          <t>Dominus Estate</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>165.00</t>
+          <t>250.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>178.00</t>
+          <t>270.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -966,23 +966,25 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>51417</t>
+          <t>49782</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Champagne Brut Rosé (Edition 29)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Quintus</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2020</v>
+      </c>
       <c r="C12" t="n">
         <v>75</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Krug</t>
+          <t>Château Quintus</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -990,66 +992,66 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>300.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>325.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>65274</t>
+          <t>65331</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Figeac</t>
+          <t>Quintus</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C13" t="n">
         <v>75</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Château Figeac</t>
+          <t>Château Quintus</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>145.00</t>
+          <t>47.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>155.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1058,25 +1060,25 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>48976</t>
+          <t>65331</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Figeac</t>
+          <t>Colore</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C14" t="n">
         <v>75</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Château Figeac</t>
+          <t>Bibi Graetz</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1084,19 +1086,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>240.00</t>
+          <t>168.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>260.00</t>
+          <t>171.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1105,14 +1107,14 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1684</t>
+          <t>54667</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pichon Longueville Baron</t>
+          <t>Pavie</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1123,27 +1125,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Château Pichon-Longueville Baron</t>
+          <t>Château Pavie</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>165.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>106.00</t>
+          <t>180.00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1152,25 +1154,25 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>55598</t>
+          <t>55416</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cos d'Estournel</t>
+          <t>Léoville Las Cases</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C16" t="n">
         <v>75</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Château Cos d'Estournel</t>
+          <t>Château Léoville Las Cases</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1178,19 +1180,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>215.00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1199,25 +1201,25 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>55625</t>
+          <t>2257</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cos d'Estournel</t>
+          <t>Léoville Las Cases</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C17" t="n">
         <v>75</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Château Cos d'Estournel</t>
+          <t>Château Léoville Las Cases</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1225,19 +1227,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>195.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>210.00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1246,25 +1248,25 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>55625</t>
+          <t>2257</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ornellaia</t>
+          <t>Grange</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C18" t="n">
         <v>75</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tenuta dell'Ornellaia</t>
+          <t>Penfolds</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1272,19 +1274,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>165.00</t>
+          <t>350.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>220.00</t>
+          <t>380.00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1293,25 +1295,25 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>60030</t>
+          <t>59604</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Malescot Saint-Exupéry</t>
+          <t>Il Pino di Biserno</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C19" t="n">
         <v>75</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Château Malescot Saint Exupéry</t>
+          <t>Tenuta di Biserno</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1319,19 +1321,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1340,45 +1342,45 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>57312</t>
+          <t>63068</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Clio</t>
+          <t>Aalto</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C20" t="n">
         <v>75</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bodegas El Nido</t>
+          <t>Aalto Bodegas y Viñedos</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1387,25 +1389,25 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>62736</t>
+          <t>64921</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mangot</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C21" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Château Mangot</t>
+          <t>Aalto Bodegas y Viñedos</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1413,93 +1415,93 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>540.00</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>585.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>57604</t>
+          <t>64922</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sauvignon Blanc</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C22" t="n">
         <v>75</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cloudy Bay</t>
+          <t>Aalto Bodegas y Viñedos</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>72.00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>78.00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>56726</t>
+          <t>64922</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Phélan Ségur</t>
+          <t>Champagne Brut Cristal Rosé</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C23" t="n">
         <v>75</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Château Phélan Ségur</t>
+          <t>Louis Roederer</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1507,19 +1509,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>340.00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>365.00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1528,25 +1530,25 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>49069</t>
+          <t>65811</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Péby Faugeres</t>
+          <t>IX Proprietary Red Estate</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C24" t="n">
         <v>75</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Château Péby Faugères</t>
+          <t>Colgin Cellars</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1554,19 +1556,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>580.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>62.00</t>
+          <t>625.00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1575,25 +1577,23 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>55831</t>
+          <t>63171</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pavie Macquin</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2021</v>
-      </c>
+          <t>Champagne Brut Blanc de Blancs</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
         <v>75</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Château Pavie Macquin</t>
+          <t>Maison Ruinart</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1601,44 +1601,46 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>79.00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>item_no_match</t>
+          <t>fuzzy_filtered</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>55741</t>
+          <t>8110</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Champagne Brut Blanc de Blancs</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>Cos d'Estournel</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2020</v>
+      </c>
       <c r="C26" t="n">
         <v>75</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Maison Ruinart</t>
+          <t>Château Cos d'Estournel</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1646,46 +1648,46 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>67.00</t>
+          <t>135.00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>73.00</t>
+          <t>145.00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>8110</t>
+          <t>53914</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Redigaffi</t>
+          <t>Champagne Brut Comtes de Champagne Blanc de Blancs</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="C27" t="n">
         <v>75</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Azienda Agricola Tua Rita</t>
+          <t>Taittinger Champagne</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1693,19 +1695,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>115.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>160.00</t>
+          <t>125.00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1714,25 +1716,25 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>59603</t>
+          <t>65733</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>La Fleur de Bouard</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C28" t="n">
         <v>75</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Château La Fleur de Boüard</t>
+          <t>Château Canon</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1740,46 +1742,46 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>265.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>59.00</t>
+          <t>274.00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>item_no_match</t>
+          <t>fuzzy_filtered</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>40068</t>
+          <t>35636</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pape Clément Blanc</t>
+          <t>Champagne Brut Dom Pérignon P2</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2024</v>
+        <v>2006</v>
       </c>
       <c r="C29" t="n">
         <v>75</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Château Pape Clément</t>
+          <t>Dom Pérignon</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1787,46 +1789,46 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>320.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>105.00</t>
+          <t>345.00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>63684</t>
+          <t>62033</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rieussec</t>
+          <t>Solaia</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30" t="n">
         <v>75</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Château Rieussec</t>
+          <t>Antinori - Tenuta Tignanello</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1834,46 +1836,46 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>310.00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>54.00</t>
+          <t>325.00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>item_no_match</t>
+          <t>fuzzy_filtered</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>55376</t>
+          <t>59119</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Paleo Rosso</t>
+          <t>Muga Prado Enea Gran Reserva</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C31" t="n">
         <v>75</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Le Macchiole</t>
+          <t>Bodegas Muga</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1881,19 +1883,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1902,14 +1904,14 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>63717</t>
+          <t>56334</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Champagne Extra Brut Grand Cru Le Mesnil</t>
+          <t>Pichon Longueville Comtesse Lalande</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1920,7 +1922,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Frederic Savart</t>
+          <t>Château Pichon-Longueville Comtesse de Lalande</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1928,46 +1930,46 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>165.00</t>
+          <t>218.00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>180.00</t>
+          <t>218.00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>item_no_match</t>
+          <t>fuzzy_filtered</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>65596</t>
+          <t>57074</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Champagne Brut Dom Pérignon</t>
+          <t>Champagne Extra Brut Grand Cru Le Mesnil</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="C33" t="n">
         <v>75</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dom Pérignon</t>
+          <t>Frederic Savart</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1975,19 +1977,19 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>165.00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>160.00</t>
+          <t>180.00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1996,70 +1998,72 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>61750</t>
+          <t>65596</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Champagne Brut Dom Pérignon</t>
+          <t>Il Pino di Biserno</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C34" t="n">
         <v>75</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Dom Pérignon</t>
+          <t>Tenuta di Biserno</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>146.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>158.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>direct</t>
+          <t>fuzzy_filtered</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>61750</t>
+          <t>56954</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Champagne Brut Réserve</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>Marsau</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2022</v>
+      </c>
       <c r="C35" t="n">
         <v>75</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Taittinger Champagne</t>
+          <t>Château Marsau</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2067,46 +2071,46 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>62427</t>
+          <t>57961</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brut Satèn</t>
+          <t>Larrivet Haut Brion Rouge</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C36" t="n">
         <v>75</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bellavista</t>
+          <t>Château Larrivet Haut-Brion</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2114,44 +2118,46 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>62363</t>
+          <t>65368</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Champagne Brut Grande Cuvée (Edition 172)</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>Guidalberto (2nd Vin)</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2023</v>
+      </c>
       <c r="C37" t="n">
         <v>75</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Krug</t>
+          <t>Tenuta San Guido</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2159,93 +2165,93 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>175.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>190.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>62042</t>
+          <t>62855</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lodovico</t>
+          <t>Guidalberto (2nd Vin)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C38" t="n">
         <v>75</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tenuta di Biserno</t>
+          <t>Tenuta San Guido</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>295.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>320.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>62945</t>
+          <t>62855</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Champagne Clos des Goisses L.V.</t>
+          <t>La Croix Ducru-Beaucaillou (2nd Vin)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2000</v>
+        <v>2022</v>
       </c>
       <c r="C39" t="n">
         <v>75</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Philipponnat</t>
+          <t>Château Ducru Beaucaillou</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2253,19 +2259,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>335.00</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>365.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2274,70 +2280,72 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>65667</t>
+          <t>57222</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Clos Apalta</t>
+          <t>La Croix Ducru-Beaucaillou (2nd Vin)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C40" t="n">
-        <v>1500</v>
+        <v>75</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Lapostolle Winery</t>
+          <t>Château Ducru Beaucaillou</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2000.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2160.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>62150</t>
+          <t>57222</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Champagne Brut Cuvée Rosé</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>Bòggina A</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2023</v>
+      </c>
       <c r="C41" t="n">
         <v>75</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Laurent Perrier</t>
+          <t>Fattoria Petrolo</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2345,91 +2353,93 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>64.00</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>21530</t>
+          <t>65652</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Champagne Brut Cuvée Rosé</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>Paixar A Serra</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2023</v>
+      </c>
       <c r="C42" t="n">
         <v>75</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Laurent Perrier</t>
+          <t>Bodegas y Viñedos Luna Beberide</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>62.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>21530</t>
+          <t>65316</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Le Petit Cheval Blanc</t>
+          <t>Paixar A Serra</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2023</v>
       </c>
       <c r="C43" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Château Cheval Blanc</t>
+          <t>Bodegas y Viñedos Luna Beberide</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2437,19 +2447,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>52.00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>56.00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2458,25 +2468,25 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>65582</t>
+          <t>65394</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ygrec de Ch. d'Yquem</t>
+          <t>Il Pino di Biserno</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C44" t="n">
         <v>75</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Château d'Yquem</t>
+          <t>Tenuta di Biserno</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2484,19 +2494,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>135.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2505,45 +2515,45 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>65467</t>
+          <t>60043</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>La Mission Haut-Brion Blanc</t>
+          <t>Il Pino di Biserno</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C45" t="n">
         <v>75</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Château La Mission Haut Brion</t>
+          <t>Tenuta di Biserno</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>440.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>475.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2552,25 +2562,25 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>53945</t>
+          <t>60043</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Clos Floridène Blanc</t>
+          <t>Gran Reserva 904</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="C46" t="n">
         <v>75</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Clos Floridène</t>
+          <t>La Rioja Alta</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2578,19 +2588,19 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2599,45 +2609,45 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>65529</t>
+          <t>51783</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cheval des Andes</t>
+          <t>Gran Reserva 904</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C47" t="n">
         <v>75</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cheval des Andes</t>
+          <t>La Rioja Alta</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>62.00</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>67.00</t>
+          <t>52.00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2646,25 +2656,25 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>63172</t>
+          <t>51783</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lascombes</t>
+          <t>Saffredi</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C48" t="n">
         <v>75</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Château Lascombes</t>
+          <t>Fattoria le Pupille</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2672,19 +2682,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>68.00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>73.00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2693,45 +2703,45 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>57259</t>
+          <t>59276</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Solaia</t>
+          <t>Saffredi</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C49" t="n">
         <v>75</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Antinori - Tenuta Tignanello</t>
+          <t>Fattoria le Pupille</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>305.00</t>
+          <t>66.00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>320.00</t>
+          <t>72.00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2740,25 +2750,25 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>62397</t>
+          <t>59276</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Opus One</t>
+          <t>Flaccianello della Pieve</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C50" t="n">
         <v>75</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Opus One Winery</t>
+          <t>Fontodi</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2766,19 +2776,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>255.00</t>
+          <t>79.00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>272.00</t>
+          <t>85.00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2787,45 +2797,45 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>65428</t>
+          <t>61426</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Yjar</t>
+          <t>Pavie Macquin</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C51" t="n">
         <v>75</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Telmo Rodríguez</t>
+          <t>Château Pavie Macquin</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>115.00</t>
+          <t>76.00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2834,25 +2844,25 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>65509</t>
+          <t>53983</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Almaviva</t>
+          <t>Guado al Tasso</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C52" t="n">
         <v>75</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Baron Philippe de Rothschild and Concha Y Toro</t>
+          <t>Antinori - Tenuta Guado al Tasso</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2860,19 +2870,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>83.00</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>103.00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2881,25 +2891,25 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>64179</t>
+          <t>63048</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Almaviva</t>
+          <t>Guado al Tasso</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C53" t="n">
         <v>75</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Baron Philippe de Rothschild and Concha Y Toro</t>
+          <t>Antinori - Tenuta Guado al Tasso</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2907,46 +2917,46 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>81.00</t>
+          <t>92.00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>direct</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>64179</t>
+          <t>63048</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Grange</t>
+          <t>Sette</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C54" t="n">
         <v>75</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Penfolds</t>
+          <t>Tenuta Sette Ponti</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2954,19 +2964,19 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>475.00</t>
+          <t>88.00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>515.00</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2975,25 +2985,25 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>63301</t>
+          <t>61839</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Margaux</t>
+          <t>Barolo Cannubi</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="C55" t="n">
         <v>75</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Château Margaux</t>
+          <t>Damilano Azienda Agricola</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -3001,93 +3011,93 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>465.00</t>
+          <t>59.00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>500.00</t>
+          <t>64.00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>59346</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Torrione</t>
+          <t>Barolo Cannubi</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C56" t="n">
         <v>75</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Fattoria Petrolo</t>
+          <t>Damilano Azienda Agricola</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>57.00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>62.00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>62095</t>
+          <t>59346</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Abadía Retuerta Selección Especial</t>
+          <t>Paleo Rosso</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2021</v>
       </c>
       <c r="C57" t="n">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Abadía Retuerta</t>
+          <t>Le Macchiole</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -3095,46 +3105,46 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>79.00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>85.00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>63380</t>
+          <t>63717</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Marsau</t>
+          <t>Les Carmes Haut Brion</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C58" t="n">
         <v>75</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Château Marsau</t>
+          <t>Château Les Carmes Haut-Brion</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -3142,35 +3152,35 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>106.00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>item_no_match</t>
+          <t>fuzzy_filtered</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>57961</t>
+          <t>55676</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Crognolo</t>
+          <t>Tignanello</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3181,27 +3191,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tenuta Sette Ponti</t>
+          <t>Antinori - Tenuta Tignanello</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>110.00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3210,72 +3220,72 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>62101</t>
+          <t>63038</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Prosecco Brut Millesimato</t>
+          <t>Tignanello</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C60" t="n">
         <v>75</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Villa Marcello</t>
+          <t>Antinori - Tenuta Tignanello</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>108.00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>115.00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>62710</t>
+          <t>63038</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Le Difese</t>
+          <t>Cabernet Sauvignon BIN 169</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="C61" t="n">
         <v>75</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tenuta San Guido</t>
+          <t>Penfolds</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3283,66 +3293,66 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>155.00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>155.00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>item_no_match</t>
+          <t>fuzzy_filtered</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>62860</t>
+          <t>56359</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Abadía Retuerta Selección Especial</t>
+          <t>Cabernet Sauvignon BIN 169</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C62" t="n">
         <v>75</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Abadía Retuerta</t>
+          <t>Penfolds</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3351,119 +3361,103 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>63379</t>
+          <t>56359</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Abadía Retuerta Selección Especial</t>
+          <t>Château La Fleur-Pétrus</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C63" t="n">
         <v>75</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Abadía Retuerta</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>108.00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>63379</t>
-        </is>
-      </c>
+          <t>market_price_1.08</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Testamatta</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C64" t="n">
         <v>75</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Bibi Graetz</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>220.00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>52.00</t>
+          <t>237.00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>54659</t>
-        </is>
-      </c>
+          <t>market_price_1.08</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Testamatta</t>
+          <t>La Fleur Pétrus</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C65" t="n">
         <v>75</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Bibi Graetz</t>
+          <t>Château La Fleur-Pétrus</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3471,85 +3465,93 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>165.00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>180.00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>56380</t>
+          <t>49027</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PSI, Dominio de Pingus</t>
+          <t>Cabernet Sauvignon</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C66" t="n">
         <v>75</v>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Ulysses Vineyard</t>
+        </is>
+      </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>155.00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1080.00</t>
+          <t>163.00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>fallback_1.08</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr"/>
+          <t>item_no_match</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>55317</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PSI</t>
+          <t>Figeac</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="C67" t="n">
         <v>75</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Dominio de Pingus</t>
+          <t>Château Figeac</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3557,19 +3559,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>195.00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>210.00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3578,25 +3580,25 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>62481</t>
+          <t>35556</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PSI</t>
+          <t>Figeac</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="C68" t="n">
         <v>75</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Dominio de Pingus</t>
+          <t>Château Figeac</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3604,19 +3606,19 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>190.00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>205.00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3625,61 +3627,51 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>62481</t>
+          <t>35556</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Lagrange</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2021</v>
-      </c>
+          <t>Palmer Historical</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>75</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Château Lagrange</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>20.21</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>65367</t>
-        </is>
-      </c>
+          <t>fallback_1.08</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Pape Clément Rouge</t>
+          <t>Sassicaia</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3690,7 +3682,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Château Pape Clément</t>
+          <t>Tenuta San Guido</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3698,46 +3690,46 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>59.00</t>
+          <t>225.00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>63.00</t>
+          <t>232.00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>item_no_match</t>
+          <t>fuzzy_filtered</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>53908</t>
+          <t>56745</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Ducru Beaucaillou (Ex-Château)</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C71" t="n">
         <v>75</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Château Canon</t>
+          <t>Château Ducru Beaucaillou</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3745,19 +3737,19 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>92.00</t>
+          <t>260.00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>280.00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3766,45 +3758,45 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>51493</t>
+          <t>65332</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Le Clarence de Haut Brion (2nd Vin)</t>
+          <t>Ducru Beaucaillou (Ex-Château)</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C72" t="n">
         <v>75</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Château Haut Brion</t>
+          <t>Château Ducru Beaucaillou</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>255.00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>96.00</t>
+          <t>270.00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3813,25 +3805,25 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>51448</t>
+          <t>65332</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Flaccianello della Pieve</t>
+          <t>Clos l'Église (Ex-Château)</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C73" t="n">
         <v>75</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Fontodi</t>
+          <t>Clos l'Eglise</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3839,19 +3831,19 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>85.00</t>
+          <t>105.00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>92.00</t>
+          <t>113.00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3860,45 +3852,45 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>61426</t>
+          <t>65423</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Suduiraut</t>
+          <t>Clos l'Église (Ex-Château)</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="C74" t="n">
         <v>75</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Château Suduiraut</t>
+          <t>Clos l'Eglise</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>107.00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3907,45 +3899,45 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>57075</t>
+          <t>65423</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Suduiraut</t>
+          <t>Hommage à Jacques Perrin</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C75" t="n">
         <v>75</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Château Suduiraut</t>
+          <t>Château de Beaucastel</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>53.00</t>
+          <t>185.00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>200.00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3954,25 +3946,25 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>57075</t>
+          <t>59132</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ornellaia</t>
+          <t>La Joie</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="C76" t="n">
         <v>75</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tenuta dell'Ornellaia</t>
+          <t>Vérité</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3980,46 +3972,46 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>180.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>195.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>item_no_match</t>
+          <t>fuzzy_filtered</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>55195</t>
+          <t>39096</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Léoville Las Cases</t>
+          <t>Margaux</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C77" t="n">
         <v>75</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Château Léoville Las Cases</t>
+          <t>Château Margaux</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -4027,19 +4019,19 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>165.00</t>
+          <t>475.00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>180.00</t>
+          <t>515.00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -4048,25 +4040,25 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>51475</t>
+          <t>48963</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Messorio</t>
+          <t>Latour</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="C78" t="n">
         <v>75</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Le Macchiole</t>
+          <t>Château Latour</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -4074,66 +4066,66 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>160.00</t>
+          <t>975.00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>170.00</t>
+          <t>1055.00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>63714</t>
+          <t>10727</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Palmer (Ex-Château)</t>
+          <t>Latour</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="C79" t="n">
         <v>75</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Château Palmer</t>
+          <t>Château Latour</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>279.00</t>
+          <t>950.00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>300.00</t>
+          <t>1025.00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -4142,25 +4134,25 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>65476</t>
+          <t>10727</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sassicaia</t>
+          <t>Cabernet Sauvignon</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C80" t="n">
         <v>75</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tenuta San Guido</t>
+          <t>Harlan Estate</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -4168,46 +4160,46 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>275.00</t>
+          <t>1500.00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>297.00</t>
+          <t>1620.00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>fuzzy_filtered</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>33297</t>
+          <t>62804</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Haut Brion</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="C81" t="n">
         <v>75</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Château Montrose</t>
+          <t>Château Haut Brion</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -4215,19 +4207,19 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>139.00</t>
+          <t>850.00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>920.00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -4236,45 +4228,45 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>51503</t>
+          <t>10144</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>Lafite Rothschild</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="C82" t="n">
         <v>75</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Château Montrose</t>
+          <t>Château Lafite Rothschild</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>135.00</t>
+          <t>720.00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>145.00</t>
+          <t>780.00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -4283,25 +4275,25 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>51503</t>
+          <t>7779</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Figeac</t>
+          <t>Lafleur</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="C83" t="n">
         <v>75</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Château Figeac</t>
+          <t>Château Lafleur</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -4309,19 +4301,19 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>220.00</t>
+          <t>1150.00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>240.00</t>
+          <t>1250.00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -4330,25 +4322,25 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>57067</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Finca Piedra Infinita Gravascal</t>
+          <t>Barolo Monfortino Riserva</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="C84" t="n">
         <v>75</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Familia Zuccardi</t>
+          <t>Giacomo Conterno</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -4356,357 +4348,28 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>210.00</t>
+          <t>1480.00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>230.00</t>
+          <t>1600.00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>direct</t>
+          <t>item_no_match</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>65732</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Latour (Ex-Château)</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C85" t="n">
-        <v>75</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Château Latour</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>450.00</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>485.00</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>76</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>60065</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Barbaresco Asili Riserva</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C86" t="n">
-        <v>75</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Azienda Agricola Falletto di Bruno Giacosa</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>435.00</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>470.00</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>77</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>62785</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Barolo Monfortino Riserva</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>2013</v>
-      </c>
-      <c r="C87" t="n">
-        <v>75</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Giacomo Conterno</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>790.00</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>855.00</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>78</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>49764</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Mouton Rothschild</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>2009</v>
-      </c>
-      <c r="C88" t="n">
-        <v>75</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Château Mouton Rothschild</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>590.00</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>640.00</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>79</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>4369</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Mouton Rothschild</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>2009</v>
-      </c>
-      <c r="C89" t="n">
-        <v>75</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Château Mouton Rothschild</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>36</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>580.00</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>630.00</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>79</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>item_no_match</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>4369</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Champagne le Mesnil</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C90" t="n">
-        <v>75</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Maison Salon</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>855.00</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>925.00</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>80</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>65236</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Yquem</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C91" t="n">
-        <v>150</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Château d'Yquem</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>790.00</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>855.00</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>81</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>36555</t>
+          <t>15971</t>
         </is>
       </c>
     </row>
